--- a/doc/_modelos/planilha-ordem-de-servico-contaazul-r.xlsx
+++ b/doc/_modelos/planilha-ordem-de-servico-contaazul-r.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anselmo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ASS\SGE\trunk\doc\_modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="585"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de OS" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="00000\-000"/>
-    <numFmt numFmtId="167" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -685,20 +685,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -708,9 +696,6 @@
     </xf>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,32 +712,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -762,15 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="8" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -805,23 +757,11 @@
     <xf numFmtId="8" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,6 +779,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,28 +847,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1050,6 +1028,28 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1390,6 +1390,57 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4983BB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4983BB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1464,55 +1515,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF4983BB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF4983BB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1532,6 +1539,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1557,20 +1571,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1769,6 +1769,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Imagem 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1837,20 +1842,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="Agrupar 22"/>
+        <xdr:cNvPr id="23" name="Agrupar 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19230975" y="6477000"/>
-          <a:ext cx="5648325" cy="371473"/>
+          <a:off x="19202400" y="6461760"/>
+          <a:ext cx="5642610" cy="365758"/>
           <a:chOff x="10620375" y="1495426"/>
           <a:chExt cx="2952750" cy="603605"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Texto Explicativo 1 23"/>
+          <xdr:cNvPr id="24" name="Texto Explicativo 1 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2010,7 +2027,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Conector de Linha Reta 49"/>
+          <xdr:cNvPr id="25" name="Conector de Linha Reta 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2062,6 +2085,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="26" name="Imagem 25">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -2102,6 +2130,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Imagem 26">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -2146,7 +2179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Texto Explicativo 1 17"/>
+        <xdr:cNvPr id="13" name="Texto Explicativo 1 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2287,7 +2326,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector de Linha Reta 49"/>
+        <xdr:cNvPr id="20" name="Conector de Linha Reta 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2336,7 +2381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Texto Explicativo 1 17"/>
+        <xdr:cNvPr id="21" name="Texto Explicativo 1 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2477,7 +2528,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector de Linha Reta 49"/>
+        <xdr:cNvPr id="22" name="Conector de Linha Reta 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2533,6 +2590,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -2601,7 +2663,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Agrupar 2"/>
+        <xdr:cNvPr id="3" name="Agrupar 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2614,7 +2682,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Texto Explicativo 1 17"/>
+          <xdr:cNvPr id="4" name="Texto Explicativo 1 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2740,7 +2814,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Conector de Linha Reta 49"/>
+          <xdr:cNvPr id="5" name="Conector de Linha Reta 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2790,7 +2870,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Agrupar 5"/>
+        <xdr:cNvPr id="6" name="Agrupar 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2803,7 +2889,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Texto Explicativo 1 23"/>
+          <xdr:cNvPr id="7" name="Texto Explicativo 1 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2963,7 +3055,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="Conector de Linha Reta 49"/>
+          <xdr:cNvPr id="8" name="Conector de Linha Reta 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3015,6 +3113,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Imagem 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -3055,6 +3158,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Imagem 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -3106,6 +3214,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -3174,7 +3287,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Agrupar 2"/>
+        <xdr:cNvPr id="3" name="Agrupar 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3187,7 +3306,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Texto Explicativo 1 8"/>
+          <xdr:cNvPr id="4" name="Texto Explicativo 1 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3347,7 +3472,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Conector de Linha Reta 49"/>
+          <xdr:cNvPr id="5" name="Conector de Linha Reta 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3397,7 +3528,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Agrupar 5"/>
+        <xdr:cNvPr id="6" name="Agrupar 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3410,7 +3547,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Texto Explicativo 1 11"/>
+          <xdr:cNvPr id="7" name="Texto Explicativo 1 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3570,7 +3713,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="Conector de Linha Reta 49"/>
+          <xdr:cNvPr id="8" name="Conector de Linha Reta 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3622,6 +3771,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Imagem 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -3662,6 +3816,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Imagem 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -3706,7 +3865,13 @@
     <xdr:ext cx="6438900" cy="10253403"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4878,6 +5043,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -4948,6 +5118,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -4988,6 +5163,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -5021,14 +5201,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A10:E17" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="36" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A10:E17" totalsRowCount="1" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
-    <tableColumn id="8" name="Id" totalsRowDxfId="31"/>
-    <tableColumn id="1" name="Quantidade" totalsRowDxfId="30"/>
-    <tableColumn id="2" name="Produto utilizado ou Serviço Prestado" totalsRowDxfId="29"/>
-    <tableColumn id="6" name="Preço" totalsRowLabel="Total" totalsRowDxfId="33"/>
-    <tableColumn id="7" name="Total" totalsRowFunction="sum" totalsRowDxfId="32">
+    <tableColumn id="8" name="Id" totalsRowDxfId="33"/>
+    <tableColumn id="1" name="Quantidade" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Produto utilizado ou Serviço Prestado" totalsRowDxfId="31"/>
+    <tableColumn id="6" name="Preço" totalsRowLabel="Total" totalsRowDxfId="30"/>
+    <tableColumn id="7" name="Total" totalsRowFunction="sum" totalsRowDxfId="29">
       <calculatedColumnFormula>SUM(E2:E10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5055,40 +5235,40 @@
     <tableColumn id="10" name="ESTADO" dataDxfId="13"/>
     <tableColumn id="11" name="DATA ABERTURA" dataDxfId="12"/>
     <tableColumn id="12" name="DATA VENCIMENTO" dataDxfId="11"/>
-    <tableColumn id="15" name="TEMPO DE EXECUÇÃO EM DIAS" dataDxfId="0">
+    <tableColumn id="15" name="TEMPO DE EXECUÇÃO EM DIAS" dataDxfId="10">
       <calculatedColumnFormula>'Controle de OS '!$M9-'Controle de OS '!$L9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SOLUÇÃO ADOTADA" dataDxfId="10"/>
+    <tableColumn id="13" name="SOLUÇÃO ADOTADA" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela2" displayName="Tabela2" ref="B5:B11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela2" displayName="Tabela2" ref="B5:B11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B5:B11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="ATENDENTES" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="ATENDENTES" dataDxfId="6" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela28" displayName="Tabela28" ref="F5:F8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela28" displayName="Tabela28" ref="F5:F8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="F5:F8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MOTIVO DE CHAMADO" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="MOTIVO DE CHAMADO" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="D5:D8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="D5:D8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D5:D8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Clientes" dataDxfId="2"/>
+    <tableColumn id="1" name="Clientes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5421,216 +5601,218 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="6" customWidth="1"/>
-    <col min="4" max="5" width="14.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="14.59765625" style="6" customWidth="1"/>
     <col min="6" max="6" width="23" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="6" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="39.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="39.69921875" style="6" customWidth="1"/>
     <col min="18" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="2" spans="1:7" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="E4" s="36">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="E7" s="69"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>1</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>2</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="B12" s="32"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
         <v>3</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="59" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="44">
         <f>SUM(E13:E13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="59" t="s">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="44">
         <f>SUM(E14:E14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="66" t="s">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="51">
         <f>SUM(E14:E15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="68" t="s">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="53">
         <f>SUBTOTAL(109,Tabela1[Total])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+    <row r="18" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -5642,188 +5824,188 @@
       <c r="N18" s="13"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+    <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="31"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:16384" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16384" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:16384" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16384" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -22209,1993 +22391,1988 @@
       <c r="XFC43" s="6"/>
       <c r="XFD43" s="6"/>
     </row>
-    <row r="44" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="H354" s="7"/>
     </row>
-    <row r="355" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="H364" s="7"/>
     </row>
-    <row r="365" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F377" s="7"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:C8"/>
@@ -24203,7 +24380,12 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="F18">
     <cfRule type="iconSet" priority="16">
@@ -24260,33 +24442,33 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.69921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="6" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="39.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="39.69921875" style="6" customWidth="1"/>
     <col min="16" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" s="79" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -24294,7 +24476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
@@ -24303,7 +24485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -24312,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -24321,7 +24503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
@@ -24368,7 +24550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>5</v>
       </c>
@@ -24409,7 +24591,7 @@
       <c r="M9" s="28">
         <v>42403</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="59">
         <f>'Controle de OS '!$M9-'Controle de OS '!$L9</f>
         <v>11</v>
       </c>
@@ -24417,7 +24599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>6</v>
       </c>
@@ -24458,7 +24640,7 @@
       <c r="M10" s="28">
         <v>42403</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="59">
         <f>'Controle de OS '!$M10-'Controle de OS '!$L10</f>
         <v>2</v>
       </c>
@@ -24466,7 +24648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
@@ -24507,7 +24689,7 @@
       <c r="M11" s="28">
         <v>42493</v>
       </c>
-      <c r="N11" s="79">
+      <c r="N11" s="59">
         <f>'Controle de OS '!$M11-'Controle de OS '!$L11</f>
         <v>8</v>
       </c>
@@ -24515,7 +24697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
@@ -24556,7 +24738,7 @@
       <c r="M12" s="28">
         <v>42493</v>
       </c>
-      <c r="N12" s="79">
+      <c r="N12" s="59">
         <f>'Controle de OS '!$M12-'Controle de OS '!$L12</f>
         <v>15</v>
       </c>
@@ -24564,7 +24746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -24584,1793 +24766,1793 @@
       <c r="N13" s="13"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="3:6" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
     </row>
-    <row r="368" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
     </row>
-    <row r="369" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
     </row>
-    <row r="370" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
     </row>
-    <row r="371" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
     </row>
-    <row r="372" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
     </row>
-    <row r="373" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
     </row>
-    <row r="374" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
     </row>
-    <row r="375" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
     </row>
-    <row r="376" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
     </row>
-    <row r="377" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
     </row>
-    <row r="378" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D378" s="7"/>
     </row>
   </sheetData>
@@ -26456,44 +26638,44 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="30.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="79" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="57" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
@@ -26506,7 +26688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
@@ -26519,12 +26701,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="58" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="4"/>
@@ -26532,7 +26714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
@@ -26541,201 +26723,201 @@
       <c r="E9" s="4"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
@@ -26766,15 +26948,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1" s="79" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
